--- a/data/data-sources.xlsx
+++ b/data/data-sources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="900" windowWidth="21495" windowHeight="8610"/>
+    <workbookView xWindow="510" yWindow="900" windowWidth="18345" windowHeight="4095"/>
   </bookViews>
   <sheets>
     <sheet name="data sources" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="514">
   <si>
     <t>http://www.gbif.org/</t>
   </si>
@@ -794,6 +794,777 @@
   <si>
     <t>Our program is intensive and hands-on. Fellows work with nonprofits, local governments, and federal agencies, learning about what they do and tackling data problems they face.
 We believe in open knowledge and open source. We blog extensively about our projects, and make much of our research and code open to everyone.</t>
+  </si>
+  <si>
+    <t>A Guide to Actionable Measurement</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=166</t>
+  </si>
+  <si>
+    <t>Bill &amp; Melinda Gates Foundation</t>
+  </si>
+  <si>
+    <t>Best Practice</t>
+  </si>
+  <si>
+    <t>A Practical Guide for Engaging Stakeholders in Developing Evaluation Questions</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=152</t>
+  </si>
+  <si>
+    <t>FSG</t>
+  </si>
+  <si>
+    <t>Alliance for Justice Advocacy Capacity Tool (ACT)</t>
+  </si>
+  <si>
+    <t>Bolder Advocacy project of Alliance for Justice</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=8</t>
+  </si>
+  <si>
+    <t>Application Perception Report (APR)</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=37</t>
+  </si>
+  <si>
+    <t>Center for Effective Philanthropy</t>
+  </si>
+  <si>
+    <t>Appreciative Inquiry Approach</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=9</t>
+  </si>
+  <si>
+    <t>Annie E. Casey Foundation, Organizational Research Services</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Apricot Outcomes Achievement Software</t>
+  </si>
+  <si>
+    <t>Community TechKnowledge</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=180</t>
+  </si>
+  <si>
+    <t>Ashoka Measuring Effectiveness Questionnaire</t>
+  </si>
+  <si>
+    <t>Ashoka</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=27</t>
+  </si>
+  <si>
+    <t>Assessing and Building Your Organization's Capacity</t>
+  </si>
+  <si>
+    <t>Capable Partners Program (CAP), NGO Connect</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=190</t>
+  </si>
+  <si>
+    <t>Assessing Number and Type of Policies</t>
+  </si>
+  <si>
+    <t>Assessment and Improvement Indicators</t>
+  </si>
+  <si>
+    <t>Venture Philanthropy Partners</t>
+  </si>
+  <si>
+    <t>BACO Ratio</t>
+  </si>
+  <si>
+    <t>Acumen Fund</t>
+  </si>
+  <si>
+    <t>Balanced Scorecard</t>
+  </si>
+  <si>
+    <t>New Profit, Inc.</t>
+  </si>
+  <si>
+    <t>Base of Pyramid Impact Assessment Framework</t>
+  </si>
+  <si>
+    <t>William Davidson Institute</t>
+  </si>
+  <si>
+    <t>BBB Wise Giving Alliance Seal</t>
+  </si>
+  <si>
+    <t>Better Business Bureau</t>
+  </si>
+  <si>
+    <t>certified</t>
+  </si>
+  <si>
+    <t>Beneficiary Perception Report (BPR)</t>
+  </si>
+  <si>
+    <t>Benefit-Cost Analysis</t>
+  </si>
+  <si>
+    <t>Abt Associates</t>
+  </si>
+  <si>
+    <t>Benefit-Cost Ratio</t>
+  </si>
+  <si>
+    <t>Robin Hood Foundation</t>
+  </si>
+  <si>
+    <t>Billboard Survey Form</t>
+  </si>
+  <si>
+    <t>Annie E. Casey Foundation, FACE</t>
+  </si>
+  <si>
+    <t>BluePrint 1.0</t>
+  </si>
+  <si>
+    <t>Blue Ridge Foundation</t>
+  </si>
+  <si>
+    <t>Board Service ROI Tracker</t>
+  </si>
+  <si>
+    <t>True Impact (with Points of Light/HandsOn Network)</t>
+  </si>
+  <si>
+    <t>Born Learning Washington Monthly Media Tracking Form</t>
+  </si>
+  <si>
+    <t>Build Initiative Checklist</t>
+  </si>
+  <si>
+    <t>Annie E. Casey Foundation, Build, Organizational Research Services</t>
+  </si>
+  <si>
+    <t>http://unstats.un.org/unsd/demographic/products/socind/</t>
+  </si>
+  <si>
+    <t>Social indicators</t>
+  </si>
+  <si>
+    <t>http://35.8.121.111/si/home.aspx</t>
+  </si>
+  <si>
+    <t>Using Social Indicators for Evaluating Nonpoint Source (NPS) Management Efforts</t>
+  </si>
+  <si>
+    <t>http://www.oecd.org/social/soc/</t>
+  </si>
+  <si>
+    <t>Social policies and data</t>
+  </si>
+  <si>
+    <t>http://www.ciesin.org/IC/wbank/sid-home.html</t>
+  </si>
+  <si>
+    <t>Social Indicators of Development</t>
+  </si>
+  <si>
+    <t>Building a Performance Measurement System</t>
+  </si>
+  <si>
+    <t>Building Future Leaders Diagnostic Survey</t>
+  </si>
+  <si>
+    <t>Campaign Champions Data Collection Tool</t>
+  </si>
+  <si>
+    <t>Capabilities Profiler</t>
+  </si>
+  <si>
+    <t>Changes in Attitudes Focus Group</t>
+  </si>
+  <si>
+    <t>Charity Analysis Framework</t>
+  </si>
+  <si>
+    <t>Charity Navigator Rating</t>
+  </si>
+  <si>
+    <t>Charting Impact</t>
+  </si>
+  <si>
+    <t>Checklist for Reviewing a Randomized Controlled Trial or a Social Program or Project</t>
+  </si>
+  <si>
+    <t>Civic Engagement Measurement System (CEMS)</t>
+  </si>
+  <si>
+    <t>Cluster Evaluation</t>
+  </si>
+  <si>
+    <t>Community Health Assessment aNd Group Evaluation (CHANGE)</t>
+  </si>
+  <si>
+    <t>Community Members' Perceptions about Prioritization of Issues Survey</t>
+  </si>
+  <si>
+    <t>Community of Learners</t>
+  </si>
+  <si>
+    <t>Community Tool Box</t>
+  </si>
+  <si>
+    <t>Comparative Constituency Feedback</t>
+  </si>
+  <si>
+    <t>Compass Index Sustainability Assessment</t>
+  </si>
+  <si>
+    <t>Considering Evaluation</t>
+  </si>
+  <si>
+    <t>Core Capacity Assessment Tool (CCAT)</t>
+  </si>
+  <si>
+    <t>Cost Benefit Analysis</t>
+  </si>
+  <si>
+    <t>Cost Effectiveness Analysis</t>
+  </si>
+  <si>
+    <t>Cost per Impact</t>
+  </si>
+  <si>
+    <t>Cradle to Cradle Certification</t>
+  </si>
+  <si>
+    <t>Criteria for Philanthropy at Its Best</t>
+  </si>
+  <si>
+    <t>Cultural Data Project</t>
+  </si>
+  <si>
+    <t>Dalberg Approach</t>
+  </si>
+  <si>
+    <t>Developing a Theory of Change</t>
+  </si>
+  <si>
+    <t>Development Outcome Tracking System (DOTS)</t>
+  </si>
+  <si>
+    <t>DevResults</t>
+  </si>
+  <si>
+    <t>Donor Committee for Enterprise Development (DCED) Standard</t>
+  </si>
+  <si>
+    <t>Donor Perception Report (DPR)</t>
+  </si>
+  <si>
+    <t>Due Diligence Framework for Scaling Initiatives</t>
+  </si>
+  <si>
+    <t>Echoing Green Mid-Year and Year End Reports</t>
+  </si>
+  <si>
+    <t>Ecological Footprint</t>
+  </si>
+  <si>
+    <t>Efforts to Outcomes (ETO) Software</t>
+  </si>
+  <si>
+    <t>Environmental Performance Reporting System (EPRS)</t>
+  </si>
+  <si>
+    <t>Evaluating Development Co-Operation</t>
+  </si>
+  <si>
+    <t>Evaluating the Impact of Development Projects on Poverty: A Handbook for Practitioners</t>
+  </si>
+  <si>
+    <t>Evaluation Plan Builder</t>
+  </si>
+  <si>
+    <t>Evaluation Principles and Practices</t>
+  </si>
+  <si>
+    <t>Excellence Model</t>
+  </si>
+  <si>
+    <t>Expected Return</t>
+  </si>
+  <si>
+    <t>External Review of Program Strategy (Getting an Expert View)</t>
+  </si>
+  <si>
+    <t>Fair Trade Certification</t>
+  </si>
+  <si>
+    <t>Foundation Performance Assessment Framework</t>
+  </si>
+  <si>
+    <t>Foundation Scorecard</t>
+  </si>
+  <si>
+    <t>Foundations of Success Guideline for Effective Evaluation</t>
+  </si>
+  <si>
+    <t>Framework for Program Evaluation</t>
+  </si>
+  <si>
+    <t>Gender Equality Principles Initiative</t>
+  </si>
+  <si>
+    <t>Getting to Outcomes™</t>
+  </si>
+  <si>
+    <t>GIRAFE</t>
+  </si>
+  <si>
+    <t>GiveWell Method</t>
+  </si>
+  <si>
+    <t>Global Impact Investing Ratings System</t>
+  </si>
+  <si>
+    <t>Grantee Perception Report (GPR)</t>
+  </si>
+  <si>
+    <t>GreatNonprofits Reviews</t>
+  </si>
+  <si>
+    <t>GRI Reporting Framework</t>
+  </si>
+  <si>
+    <t>GuideStar Analyst Reports</t>
+  </si>
+  <si>
+    <t>HAP Humanitarian Accountability and Quality Management Standard</t>
+  </si>
+  <si>
+    <t>HIP (Human Impact + Profit) Scorecard ™</t>
+  </si>
+  <si>
+    <t>Impact Framework</t>
+  </si>
+  <si>
+    <t>Impact Reporting and Investment Standards (IRIS)</t>
+  </si>
+  <si>
+    <t>Intensity of Integration Tracking Form</t>
+  </si>
+  <si>
+    <t>Interrupted Time Series Designs</t>
+  </si>
+  <si>
+    <t>KaBOOM! Method</t>
+  </si>
+  <si>
+    <t>KIDS COUNT Media Tracking Form</t>
+  </si>
+  <si>
+    <t>KIDS COUNT Self-Assessment Tool</t>
+  </si>
+  <si>
+    <t>LBG Measuring and Benchmarking Corportate Community Investment</t>
+  </si>
+  <si>
+    <t>Leadership in Energy and Environmental Design Certification (LEED)</t>
+  </si>
+  <si>
+    <t>Learning for Results</t>
+  </si>
+  <si>
+    <t>Learning with Constituents</t>
+  </si>
+  <si>
+    <t>Legislative Process Tracking Log</t>
+  </si>
+  <si>
+    <t>Listen First Framework</t>
+  </si>
+  <si>
+    <t>Listen Learn Lead</t>
+  </si>
+  <si>
+    <t>Local Multiplier 3</t>
+  </si>
+  <si>
+    <t>Logic Model Builder</t>
+  </si>
+  <si>
+    <t>Making the Case™</t>
+  </si>
+  <si>
+    <t>Measurement of Cultural Vitality</t>
+  </si>
+  <si>
+    <t>Measures of Success</t>
+  </si>
+  <si>
+    <t>Measuring Advocacy and Policy</t>
+  </si>
+  <si>
+    <t>Measuring Impact Framework</t>
+  </si>
+  <si>
+    <t>Meeting Observation Checklist</t>
+  </si>
+  <si>
+    <t>Methodology for Impact Analysis and Assessment (MIAA)</t>
+  </si>
+  <si>
+    <t>Metrics Guide</t>
+  </si>
+  <si>
+    <t>Metrics that Matter</t>
+  </si>
+  <si>
+    <t>MicroRate</t>
+  </si>
+  <si>
+    <t>Monitoring &amp; Evaluation Toolkit</t>
+  </si>
+  <si>
+    <t>Monitoring and Evaluation for Poverty Reduction</t>
+  </si>
+  <si>
+    <t>Movement Above the U.S. $1 a Day Threshold</t>
+  </si>
+  <si>
+    <t>Multidimensional Assessment Process (MAP)</t>
+  </si>
+  <si>
+    <t>Nurse-Family Partnership Evaluation &amp; Logic Models</t>
+  </si>
+  <si>
+    <t>Operational Benchmarking Report (OBR)</t>
+  </si>
+  <si>
+    <t>Organizational Assessment Tool</t>
+  </si>
+  <si>
+    <t>Organizational Capacity Assessment Tool</t>
+  </si>
+  <si>
+    <t>Organizational Capacity Assessment Tool (OCAT)</t>
+  </si>
+  <si>
+    <t>Outcome Mapping</t>
+  </si>
+  <si>
+    <t>Outcome-Based Evaluation</t>
+  </si>
+  <si>
+    <t>Outcomes and Impact Frameworks</t>
+  </si>
+  <si>
+    <t>PCV Social Impact Assessment</t>
+  </si>
+  <si>
+    <t>Performance Information that Really Performs</t>
+  </si>
+  <si>
+    <t>PerformWell</t>
+  </si>
+  <si>
+    <t>Philanthropedia</t>
+  </si>
+  <si>
+    <t>Policy Brief Stakeholder Survey</t>
+  </si>
+  <si>
+    <t>Policy Tracking Analysis Tool</t>
+  </si>
+  <si>
+    <t>Policy Tracking Form</t>
+  </si>
+  <si>
+    <t>Political Return on Investment (PROI)</t>
+  </si>
+  <si>
+    <t>Poverty and Social Impact Analysis (PSIA)</t>
+  </si>
+  <si>
+    <t>PQASSO</t>
+  </si>
+  <si>
+    <t>Pro Bono Manager</t>
+  </si>
+  <si>
+    <t>Program and Policymaking Evaluation</t>
+  </si>
+  <si>
+    <t>Programme Accountability and Learning System (PALS)</t>
+  </si>
+  <si>
+    <t>Progress out of Poverty Index (PPI)</t>
+  </si>
+  <si>
+    <t>Project Level Evaluation: Context Evaluation</t>
+  </si>
+  <si>
+    <t>Project Level Evaluation: Implementation Evaluation</t>
+  </si>
+  <si>
+    <t>Project Level Evaluation: Outcome Evaluation</t>
+  </si>
+  <si>
+    <t>Project Streamline Grantmaker Assessment Tool</t>
+  </si>
+  <si>
+    <t>Prove It!</t>
+  </si>
+  <si>
+    <t>Pulse</t>
+  </si>
+  <si>
+    <t>Quality Audit Tool for Managing Performance (QAT)</t>
+  </si>
+  <si>
+    <t>Quality of Official Development Assistance (QuODA) Assessment</t>
+  </si>
+  <si>
+    <t>Roca’s High-Risk Youth Intervention Model</t>
+  </si>
+  <si>
+    <t>SEEP Client Exit Survey</t>
+  </si>
+  <si>
+    <t>SEEP Client Satisfaction Focus Group</t>
+  </si>
+  <si>
+    <t>SEEP Empowerment Interview</t>
+  </si>
+  <si>
+    <t>SEEP Impact Survey</t>
+  </si>
+  <si>
+    <t>SEEP Loan and Savings Use Interview</t>
+  </si>
+  <si>
+    <t>SOCIAL</t>
+  </si>
+  <si>
+    <t>Social Audit</t>
+  </si>
+  <si>
+    <t>Social e-valuator</t>
+  </si>
+  <si>
+    <t>Social Impact Assessment</t>
+  </si>
+  <si>
+    <t>Social Impact Assessment (SIA)</t>
+  </si>
+  <si>
+    <t>Social IMPact Measurement for Local Economies (SIMPLE)</t>
+  </si>
+  <si>
+    <t>Social Impact Tracker</t>
+  </si>
+  <si>
+    <t>Social Investment Risk Assessment (SIRA)</t>
+  </si>
+  <si>
+    <t>Social Outcome Tracking</t>
+  </si>
+  <si>
+    <t>Social Performance Audit Tool</t>
+  </si>
+  <si>
+    <t>Social Performance Indicators (SPI)</t>
+  </si>
+  <si>
+    <t>Social Rating</t>
+  </si>
+  <si>
+    <t>Social Value Metrics</t>
+  </si>
+  <si>
+    <t>SPEAK (Strategic Planning, Evaluation and Knowledge Networking)</t>
+  </si>
+  <si>
+    <t>Spider Diagram for Capacity Building Advocacy</t>
+  </si>
+  <si>
+    <t>SROI</t>
+  </si>
+  <si>
+    <t>SROI Framework</t>
+  </si>
+  <si>
+    <t>SROI Lite</t>
+  </si>
+  <si>
+    <t>SROI Toolkit</t>
+  </si>
+  <si>
+    <t>Staff Perception Report (SPR)</t>
+  </si>
+  <si>
+    <t>Stakeholder Assessment Report (STAR)</t>
+  </si>
+  <si>
+    <t>Standards for Excellence® Program</t>
+  </si>
+  <si>
+    <t>Steps Program Evaluation</t>
+  </si>
+  <si>
+    <t>STEPS Toolkit</t>
+  </si>
+  <si>
+    <t>Success Measures Data System (SMDS)</t>
+  </si>
+  <si>
+    <t>Survey of Constituents Receiving "Issue Alerts"</t>
+  </si>
+  <si>
+    <t>TBL Scorecard</t>
+  </si>
+  <si>
+    <t>The B Impact Ratings System</t>
+  </si>
+  <si>
+    <t>The Big Picture</t>
+  </si>
+  <si>
+    <t>The Due Dilligence Tool</t>
+  </si>
+  <si>
+    <t>The FINCA Client Assessment Tool (FCAT)</t>
+  </si>
+  <si>
+    <t>The Harvard Analytical Framework</t>
+  </si>
+  <si>
+    <t>The Outcomes Star</t>
+  </si>
+  <si>
+    <t>The Readiness for Organizational Learning and Evaluation (ROLE) Instrument</t>
+  </si>
+  <si>
+    <t>The Shujog Impact Framework and Assessment</t>
+  </si>
+  <si>
+    <t>Theories of Change</t>
+  </si>
+  <si>
+    <t>Theory of Change Community</t>
+  </si>
+  <si>
+    <t>Trucost</t>
+  </si>
+  <si>
+    <t>Trustee Evaluation Toolkit</t>
+  </si>
+  <si>
+    <t>Understanding Software for Program Evaluation</t>
+  </si>
+  <si>
+    <t>Volunteering Impact Assessment Toolkit</t>
+  </si>
+  <si>
+    <t>Volunteerism ROI Tracker</t>
+  </si>
+  <si>
+    <t>Wallace Assessment Tool</t>
+  </si>
+  <si>
+    <t>Women's Empowerment Framework</t>
+  </si>
+  <si>
+    <t>Root Cause</t>
+  </si>
+  <si>
+    <t>The Bridgespan Group</t>
+  </si>
+  <si>
+    <t>Keystone Accountability</t>
+  </si>
+  <si>
+    <t>New Philanthropy Capital</t>
+  </si>
+  <si>
+    <t>Charity Navigator</t>
+  </si>
+  <si>
+    <t>Independent Sector, BBB Wise Giving Alliance and GuideStar USA</t>
+  </si>
+  <si>
+    <t>Coalition for Evidence-Based Policy</t>
+  </si>
+  <si>
+    <t>The Alliance for Children and Families</t>
+  </si>
+  <si>
+    <t>W.K. Kellogg Foundation</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>TCC Group</t>
+  </si>
+  <si>
+    <t>Work Group for Community Health and Development at the University of Kansas</t>
+  </si>
+  <si>
+    <t>AtKisson, Inc.</t>
+  </si>
+  <si>
+    <t>ActKnowledge</t>
+  </si>
+  <si>
+    <t>Center for High Impact Philanthropy</t>
+  </si>
+  <si>
+    <t>Cradle to Cradle</t>
+  </si>
+  <si>
+    <t>National Committee for Responsive Philanthropy</t>
+  </si>
+  <si>
+    <t>The Pew Charitable Trusts</t>
+  </si>
+  <si>
+    <t>Dalberg Global Development Advisors</t>
+  </si>
+  <si>
+    <t>International Finance Corporation (IFC)</t>
+  </si>
+  <si>
+    <t>CaudillWeb</t>
+  </si>
+  <si>
+    <t>The Donor Committee for Enterprise Development</t>
+  </si>
+  <si>
+    <t>Social Impact Exchange, Alliance for Social Investment</t>
+  </si>
+  <si>
+    <t>Echoing Green</t>
+  </si>
+  <si>
+    <t>Global Footprint Network</t>
+  </si>
+  <si>
+    <t>Social Solutions</t>
+  </si>
+  <si>
+    <t>tools and resources for assessing social impact</t>
   </si>
 </sst>
 </file>
@@ -820,7 +1591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +1601,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,7 +1623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -863,12 +1640,20 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1164,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U102"/>
+  <dimension ref="B1:U302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2620,7 +3405,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" spans="2:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" ht="60" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>133</v>
       </c>
@@ -3888,10 +4673,14 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="2:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
+    <row r="101" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -3910,15 +4699,1648 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="2" t="s">
+    <row r="102" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+    </row>
+    <row r="103" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+    </row>
+    <row r="104" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+    </row>
+    <row r="105" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+    </row>
+    <row r="106" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="110" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="112" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="6"/>
+      <c r="C118" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="6"/>
+      <c r="C119" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="6"/>
+      <c r="C120" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="6"/>
+      <c r="C121" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="6"/>
+      <c r="C122" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="6"/>
+      <c r="C123" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="6"/>
+      <c r="C124" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="6"/>
+      <c r="C125" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="6"/>
+      <c r="C126" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="6"/>
+      <c r="C127" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="6"/>
+      <c r="C129" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="6"/>
+      <c r="C130" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="6"/>
+      <c r="C131" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="6"/>
+      <c r="C132" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="6"/>
+      <c r="C133" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="6"/>
+      <c r="C134" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="6"/>
+      <c r="C135" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="6"/>
+      <c r="C136" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="6"/>
+      <c r="C137" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="6"/>
+      <c r="C138" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="6"/>
+      <c r="C139" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="6"/>
+      <c r="C140" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="6"/>
+      <c r="C141" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="6"/>
+      <c r="C142" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="6"/>
+      <c r="C143" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="6"/>
+      <c r="C144" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="6"/>
+      <c r="C145" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="6"/>
+      <c r="C146" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="6"/>
+      <c r="C147" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="6"/>
+      <c r="C148" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="6"/>
+      <c r="C149" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="6"/>
+      <c r="C150" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="6"/>
+      <c r="C151" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="6"/>
+      <c r="C152" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="6"/>
+      <c r="C153" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="6"/>
+      <c r="C154" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="6"/>
+      <c r="C155" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="6"/>
+      <c r="C156" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="6"/>
+      <c r="C157" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="6"/>
+      <c r="C158" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="6"/>
+      <c r="C159" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="6"/>
+      <c r="C160" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="6"/>
+      <c r="C161" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="6"/>
+      <c r="C162" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="6"/>
+      <c r="C163" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="6"/>
+      <c r="C164" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="6"/>
+      <c r="C165" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="6"/>
+      <c r="C166" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="6"/>
+      <c r="C167" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="6"/>
+      <c r="C168" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="6"/>
+      <c r="C169" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="6"/>
+      <c r="C170" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="6"/>
+      <c r="C171" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="6"/>
+      <c r="C172" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="6"/>
+      <c r="C173" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="6"/>
+      <c r="C174" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="6"/>
+      <c r="C175" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="6"/>
+      <c r="C176" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="6"/>
+      <c r="C177" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="6"/>
+      <c r="C178" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="6"/>
+      <c r="C179" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="6"/>
+      <c r="C180" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="6"/>
+      <c r="C181" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="6"/>
+      <c r="C182" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="6"/>
+      <c r="C183" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="6"/>
+      <c r="C184" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="6"/>
+      <c r="C185" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="6"/>
+      <c r="C186" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="6"/>
+      <c r="C187" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="6"/>
+      <c r="C188" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="6"/>
+      <c r="C189" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="6"/>
+      <c r="C190" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="6"/>
+      <c r="C191" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="6"/>
+      <c r="C192" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="6"/>
+      <c r="C193" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="6"/>
+      <c r="C194" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="6"/>
+      <c r="C195" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="6"/>
+      <c r="C196" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="6"/>
+      <c r="C197" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="6"/>
+      <c r="C198" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="6"/>
+      <c r="C199" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="6"/>
+      <c r="C200" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="6"/>
+      <c r="C201" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="6"/>
+      <c r="C202" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="6"/>
+      <c r="C203" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="6"/>
+      <c r="C204" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="6"/>
+      <c r="C205" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="6"/>
+      <c r="C206" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="6"/>
+      <c r="C207" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="6"/>
+      <c r="C208" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="6"/>
+      <c r="C209" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="6"/>
+      <c r="C210" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="6"/>
+      <c r="C211" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="6"/>
+      <c r="C212" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="6"/>
+      <c r="C213" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="6"/>
+      <c r="C214" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="6"/>
+      <c r="C215" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="6"/>
+      <c r="C216" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="6"/>
+      <c r="C217" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="6"/>
+      <c r="C218" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="6"/>
+      <c r="C219" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="6"/>
+      <c r="C220" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="6"/>
+      <c r="C221" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="6"/>
+      <c r="C222" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="6"/>
+      <c r="C223" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="6"/>
+      <c r="C224" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="6"/>
+      <c r="C225" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="6"/>
+      <c r="C226" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="6"/>
+      <c r="C227" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="6"/>
+      <c r="C228" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="6"/>
+      <c r="C229" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="6"/>
+      <c r="C230" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="6"/>
+      <c r="C231" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="6"/>
+      <c r="C232" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="6"/>
+      <c r="C233" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="6"/>
+      <c r="C234" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="6"/>
+      <c r="C235" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="6"/>
+      <c r="C236" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="6"/>
+      <c r="C237" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="6"/>
+      <c r="C238" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="6"/>
+      <c r="C239" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="6"/>
+      <c r="C240" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="6"/>
+      <c r="C241" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="6"/>
+      <c r="C242" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="6"/>
+      <c r="C243" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="6"/>
+      <c r="C244" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="6"/>
+      <c r="C245" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="6"/>
+      <c r="C246" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="6"/>
+      <c r="C247" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="6"/>
+      <c r="C248" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="6"/>
+      <c r="C249" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="6"/>
+      <c r="C250" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="6"/>
+      <c r="C251" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="6"/>
+      <c r="C252" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="6"/>
+      <c r="C253" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="6"/>
+      <c r="C254" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="6"/>
+      <c r="C255" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="6"/>
+      <c r="C256" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="6"/>
+      <c r="C257" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="6"/>
+      <c r="C258" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="6"/>
+      <c r="C259" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="6"/>
+      <c r="C260" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="6"/>
+      <c r="C261" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="6"/>
+      <c r="C262" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="6"/>
+      <c r="C263" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="6"/>
+      <c r="C264" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="6"/>
+      <c r="C265" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="6"/>
+      <c r="C266" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="6"/>
+      <c r="C267" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="6"/>
+      <c r="C268" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="6"/>
+      <c r="C269" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="6"/>
+      <c r="C270" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="6"/>
+      <c r="C271" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="6"/>
+      <c r="C272" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="6"/>
+      <c r="C273" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="6"/>
+      <c r="C274" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="6"/>
+      <c r="C275" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="6"/>
+      <c r="C276" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="6"/>
+      <c r="C277" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="6"/>
+      <c r="C278" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="6"/>
+      <c r="C279" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="6"/>
+      <c r="C280" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="6"/>
+      <c r="C281" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="6"/>
+      <c r="C282" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="6"/>
+      <c r="C283" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="6"/>
+      <c r="C284" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="6"/>
+      <c r="C285" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="6"/>
+      <c r="C286" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="6"/>
+      <c r="C287" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="6"/>
+      <c r="C288" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="6"/>
+      <c r="C289" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="6"/>
+      <c r="C290" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="6"/>
+      <c r="C291" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="6"/>
+      <c r="C292" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="6"/>
+      <c r="C293" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="6"/>
+      <c r="C294" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="6"/>
+      <c r="C295" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="6"/>
+      <c r="C296" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="6"/>
+      <c r="C297" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="6"/>
+      <c r="C298" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="6"/>
+      <c r="C299" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B300" s="6"/>
+      <c r="C300" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B301" s="6"/>
+      <c r="C301" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="6"/>
+      <c r="C302" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/data/data-sources.xlsx
+++ b/data/data-sources.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="900" windowWidth="18345" windowHeight="4095"/>
+    <workbookView xWindow="510" yWindow="900" windowWidth="11355" windowHeight="4095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data sources" sheetId="1" r:id="rId1"/>
+    <sheet name="methods, tools and practices" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="767">
   <si>
     <t>http://www.gbif.org/</t>
   </si>
@@ -1565,6 +1567,765 @@
   </si>
   <si>
     <t>tools and resources for assessing social impact</t>
+  </si>
+  <si>
+    <t>Environmental Capital Group</t>
+  </si>
+  <si>
+    <t>OECD DAC Network on Development Evaluation</t>
+  </si>
+  <si>
+    <t>The World Bank</t>
+  </si>
+  <si>
+    <t>Innovation Network</t>
+  </si>
+  <si>
+    <t>The William &amp; Flora Hewlett Foundation</t>
+  </si>
+  <si>
+    <t>European Foundation for Quality Management</t>
+  </si>
+  <si>
+    <t>William and Flora Hewlett Foundation</t>
+  </si>
+  <si>
+    <t>Doris Duke Charitable Foundation</t>
+  </si>
+  <si>
+    <t>TransFair USA</t>
+  </si>
+  <si>
+    <t>James Irvine Foundation</t>
+  </si>
+  <si>
+    <t>Robert Wood Johnson Foundation</t>
+  </si>
+  <si>
+    <t>Foundations of Success</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control &amp; Prevention</t>
+  </si>
+  <si>
+    <t>San Francisco Department on the Status of Women, Calvert Group, Ltd., Verité</t>
+  </si>
+  <si>
+    <t>RAND Corporation, University of South Carolina, Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>Planet Rating</t>
+  </si>
+  <si>
+    <t>GiveWell</t>
+  </si>
+  <si>
+    <t>B Lab</t>
+  </si>
+  <si>
+    <t>GreatNonprofits</t>
+  </si>
+  <si>
+    <t>Global Reporting Initiative</t>
+  </si>
+  <si>
+    <t>GuideStar</t>
+  </si>
+  <si>
+    <t>Humanitarian Accountability Partnership (HAP) International</t>
+  </si>
+  <si>
+    <t>HIP Investor, Inc.</t>
+  </si>
+  <si>
+    <t>The Global Impact Investing Network (GIIN)</t>
+  </si>
+  <si>
+    <t>U.S. Department of Education</t>
+  </si>
+  <si>
+    <t>KaBOOM!</t>
+  </si>
+  <si>
+    <t>Annie E. Casey Foundation, Innovation Network</t>
+  </si>
+  <si>
+    <t>Corporate Citizenship</t>
+  </si>
+  <si>
+    <t>U.S. Green Building Council</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/browse.php</t>
+  </si>
+  <si>
+    <t>Grantmakers for Effective Organizations</t>
+  </si>
+  <si>
+    <t>Mango, Concern Worldwide</t>
+  </si>
+  <si>
+    <t>New Economics Foundation</t>
+  </si>
+  <si>
+    <t>Women's Funding Network</t>
+  </si>
+  <si>
+    <t>Urban Institute</t>
+  </si>
+  <si>
+    <t>World Business Council for Sustainable Development</t>
+  </si>
+  <si>
+    <t>Investing for Good</t>
+  </si>
+  <si>
+    <t>True Impact</t>
+  </si>
+  <si>
+    <t>USC Program for Environmental and Regional Equity</t>
+  </si>
+  <si>
+    <t>CIVICUS World Alliance for Citizen Participation</t>
+  </si>
+  <si>
+    <t>Microcredit Summit Campaign</t>
+  </si>
+  <si>
+    <t>Nurse-Family Partnership (NFP)</t>
+  </si>
+  <si>
+    <t>Marguerite Casey Foundation</t>
+  </si>
+  <si>
+    <t>McKinsey &amp; Company, Venture Philanthropy Partners</t>
+  </si>
+  <si>
+    <t>International Development Research Centre</t>
+  </si>
+  <si>
+    <t>Organizational Research Services</t>
+  </si>
+  <si>
+    <t>Center for What Works, Urban Institute</t>
+  </si>
+  <si>
+    <t>Pacific Community Ventures</t>
+  </si>
+  <si>
+    <t>Jill Blair, Fay Twersky</t>
+  </si>
+  <si>
+    <t>Urban Institute, ChildTrends, Social Solutions</t>
+  </si>
+  <si>
+    <t>Skyline Public Works</t>
+  </si>
+  <si>
+    <t>Charities Evaluation Services</t>
+  </si>
+  <si>
+    <t>Plan International</t>
+  </si>
+  <si>
+    <t>Grameen Foundation</t>
+  </si>
+  <si>
+    <t>Center for Effective Philanthropy, Grants Managers Network</t>
+  </si>
+  <si>
+    <t>MicroFinance Centre</t>
+  </si>
+  <si>
+    <t>Global Economy &amp; Development at Brookings, Center for Global Development</t>
+  </si>
+  <si>
+    <t>Roca</t>
+  </si>
+  <si>
+    <t>SEEP</t>
+  </si>
+  <si>
+    <t>ACCION</t>
+  </si>
+  <si>
+    <t>Social Audit Network</t>
+  </si>
+  <si>
+    <t>Social Evaluator</t>
+  </si>
+  <si>
+    <t>Rockefeller Foundation, Goldman Sachs Foundation</t>
+  </si>
+  <si>
+    <t>Global Social Venture Competition</t>
+  </si>
+  <si>
+    <t>SEEDA, European Social Fund, University of Brighton, Focus Work, SEL, The Cubist</t>
+  </si>
+  <si>
+    <t>Cúnamh ICT</t>
+  </si>
+  <si>
+    <t>Hunter Consulting LLC</t>
+  </si>
+  <si>
+    <t>REDF</t>
+  </si>
+  <si>
+    <t>USAID</t>
+  </si>
+  <si>
+    <t>CERISE</t>
+  </si>
+  <si>
+    <t>M-CRIL</t>
+  </si>
+  <si>
+    <t>MicroFinanza Rating</t>
+  </si>
+  <si>
+    <t>Root Capital</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>The SROI Network</t>
+  </si>
+  <si>
+    <t>ESROIN members and others</t>
+  </si>
+  <si>
+    <t>Santa Clara University GSBI™</t>
+  </si>
+  <si>
+    <t>SVT Group</t>
+  </si>
+  <si>
+    <t>Standards for Excellence Institute</t>
+  </si>
+  <si>
+    <t>Margaret Sanger Center International, Planned Parenthood</t>
+  </si>
+  <si>
+    <t>NeighborWorks America</t>
+  </si>
+  <si>
+    <t>Triple Bottom Line Collaborative</t>
+  </si>
+  <si>
+    <t>Scottish Council for Voluntary Organisations</t>
+  </si>
+  <si>
+    <t>Grantmakers for Effective Organizations, La Piana Consulting</t>
+  </si>
+  <si>
+    <t>FINCA</t>
+  </si>
+  <si>
+    <t>Harvard Institute for International Development, Women in Development office of USAID</t>
+  </si>
+  <si>
+    <t>Triangle Consulting</t>
+  </si>
+  <si>
+    <t>FSG, Hallie Preskill &amp; Rosalie T. Torres</t>
+  </si>
+  <si>
+    <t>Impact Investment Shujog</t>
+  </si>
+  <si>
+    <t>Carol Weiss, et al.</t>
+  </si>
+  <si>
+    <t>Trucost PLC</t>
+  </si>
+  <si>
+    <t>Idealware</t>
+  </si>
+  <si>
+    <t>Institute for Volunteering Research</t>
+  </si>
+  <si>
+    <t>Wallace Foundation</t>
+  </si>
+  <si>
+    <t>Sara Hlupekile Longwe</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=10</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=143</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=5</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=98</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=151</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=30</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=38</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=1</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=109</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=11</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=33</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=196</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=12</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=13</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=117</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=200</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=14</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=86</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=15</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=97</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=45</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=73</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=46</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=184</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=144</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=188</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=16</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=128</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=191</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=82</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=28</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=160</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=129</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=31</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=32</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=50</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=47</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=93</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=169</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=53</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=83</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=78</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=203</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=183</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=40</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=199</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=55</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=63</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=125</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=56</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=100</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=133</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=74</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=198</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=58</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=150</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=54</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=134</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=79</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=107</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=60</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=35</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=156</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=158</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=104</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=62</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=110</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=49</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=70</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=64</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=71</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=162</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=72</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=108</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=6</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=17</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=137</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=81</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=18</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=19</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=185</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=140</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=68</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=84</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=20</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=87</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=69</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=95</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=75</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=168</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=139</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=61</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=7</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=161</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=21</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=172</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=194</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=192</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=92</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=187</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=174</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=89</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=41</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=163</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=42</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=76</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=186</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=142</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=176</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=101</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=138</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=102</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=80</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=178</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=189</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=22</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=23</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=24</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=99</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=132</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=44</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=193</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=145</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=103</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=67</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=146</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=147</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=148</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=170</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=96</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=4</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=90</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=155</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=164</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=120</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=121</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=122</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=123</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=124</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=2</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=165</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=167</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=111</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=66</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=119</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=182</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=126</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=106</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=141</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=52</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=88</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=91</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=112</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=181</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=25</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=105</t>
+  </si>
+  <si>
+    <t>http://trasi.foundationcenter.org/record.php?SN=131</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +2352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1610,6 +2371,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1623,7 +2390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1641,6 +2408,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1949,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U302"/>
+  <dimension ref="B1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1960,7 +2730,7 @@
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="21" width="17.28515625" style="2" customWidth="1"/>
     <col min="22" max="16384" width="14.42578125" style="2"/>
   </cols>
@@ -3405,7 +4175,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" spans="2:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>133</v>
       </c>
@@ -4815,1534 +5585,2739 @@
         <v>513</v>
       </c>
     </row>
-    <row r="110" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G199"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>258</v>
+        <v>708</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>257</v>
+        <v>402</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>259</v>
+        <v>402</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="111" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
-        <v>262</v>
+        <v>709</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>261</v>
+        <v>403</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>263</v>
+        <v>554</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="112" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
-        <v>267</v>
+        <v>710</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>264</v>
+        <v>404</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>265</v>
+        <v>516</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>269</v>
+        <v>711</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>268</v>
+        <v>405</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="F114" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>280</v>
+        <v>714</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>278</v>
+        <v>408</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="117" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
-        <v>283</v>
+        <v>715</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>281</v>
+        <v>409</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>282</v>
+        <v>517</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="6"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="6" t="s">
+        <v>716</v>
+      </c>
       <c r="C118" s="2" t="s">
-        <v>284</v>
+        <v>410</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>273</v>
+        <v>557</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="6"/>
+    <row r="119" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="s">
+        <v>717</v>
+      </c>
       <c r="C119" s="2" t="s">
-        <v>285</v>
+        <v>411</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>286</v>
+        <v>558</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="6"/>
+    <row r="120" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
+        <v>718</v>
+      </c>
       <c r="C120" s="2" t="s">
-        <v>287</v>
+        <v>412</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>288</v>
+        <v>559</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="6"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
+        <v>719</v>
+      </c>
       <c r="C121" s="2" t="s">
-        <v>289</v>
+        <v>413</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>290</v>
+        <v>560</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="6"/>
+    <row r="122" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="6" t="s">
+        <v>720</v>
+      </c>
       <c r="C122" s="2" t="s">
-        <v>291</v>
+        <v>414</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>292</v>
+        <v>561</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="123" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="6"/>
+    <row r="123" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
+        <v>721</v>
+      </c>
       <c r="C123" s="2" t="s">
-        <v>293</v>
+        <v>415</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>294</v>
+        <v>562</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G123" s="2" t="s">
+    </row>
+    <row r="124" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="124" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="6"/>
-      <c r="C124" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="6"/>
-      <c r="C125" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="6"/>
-      <c r="C126" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="6"/>
-      <c r="C127" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="6"/>
-      <c r="C128" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F128" s="2" t="s">
+    <row r="131" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="129" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="6"/>
-      <c r="C129" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="6"/>
-      <c r="C130" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="6"/>
-      <c r="C131" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="6"/>
+    <row r="132" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="6" t="s">
+        <v>730</v>
+      </c>
       <c r="C132" s="2" t="s">
-        <v>318</v>
+        <v>424</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="F132" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="133" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="6"/>
-      <c r="C133" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="6"/>
-      <c r="C134" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="6"/>
-      <c r="C135" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="6"/>
+    <row r="136" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="6" t="s">
+        <v>734</v>
+      </c>
       <c r="C136" s="2" t="s">
-        <v>322</v>
+        <v>428</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>273</v>
+        <v>568</v>
       </c>
       <c r="F136" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="137" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="6"/>
-      <c r="C137" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="6"/>
+    <row r="138" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="6" t="s">
+        <v>736</v>
+      </c>
       <c r="C138" s="2" t="s">
-        <v>324</v>
+        <v>430</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="6"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="6" t="s">
+        <v>737</v>
+      </c>
       <c r="C139" s="2" t="s">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="140" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="6"/>
+    <row r="140" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="6" t="s">
+        <v>738</v>
+      </c>
       <c r="C140" s="2" t="s">
-        <v>326</v>
+        <v>432</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>493</v>
+        <v>569</v>
       </c>
       <c r="F140" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="141" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="6"/>
-      <c r="C141" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="6"/>
-      <c r="C142" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="6"/>
-      <c r="C143" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="6"/>
-      <c r="C144" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E144" s="2" t="s">
+    <row r="155" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="6"/>
-      <c r="C145" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="6"/>
-      <c r="C146" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="6"/>
-      <c r="C147" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="6"/>
-      <c r="C148" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="6"/>
-      <c r="C149" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F149" s="2" t="s">
+      <c r="F166" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="150" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="6"/>
-      <c r="C150" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="6"/>
-      <c r="C151" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="6"/>
-      <c r="C152" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="6"/>
-      <c r="C153" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="6"/>
-      <c r="C154" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="6"/>
-      <c r="C155" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="6"/>
-      <c r="C156" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="6"/>
-      <c r="C157" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="6"/>
-      <c r="C158" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="6"/>
-      <c r="C159" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="6"/>
-      <c r="C160" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="6"/>
-      <c r="C161" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="6"/>
-      <c r="C162" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="6"/>
-      <c r="C163" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="6"/>
-      <c r="C164" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="6"/>
-      <c r="C165" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="166" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="6"/>
-      <c r="C166" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="6"/>
-      <c r="C167" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="6"/>
-      <c r="C168" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
       <c r="C169" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
       <c r="C170" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="171" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
       <c r="C171" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
       <c r="C172" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
       <c r="C173" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
       <c r="C174" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="175" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
       <c r="C175" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
       <c r="C176" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
       <c r="C177" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
       <c r="C178" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
       <c r="C179" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
       <c r="C180" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
       <c r="C181" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
       <c r="C182" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
       <c r="C183" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
       <c r="C184" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
       <c r="C185" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="6"/>
       <c r="C186" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="6"/>
       <c r="C187" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
       <c r="C188" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="6"/>
       <c r="C189" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="6"/>
       <c r="C190" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="191" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="6"/>
       <c r="C191" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
       <c r="C192" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="193" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="6"/>
       <c r="C193" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="6"/>
       <c r="C194" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="6"/>
       <c r="C195" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="6"/>
       <c r="C196" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="6"/>
-      <c r="C197" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="6"/>
-      <c r="C198" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="6"/>
-      <c r="C199" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="6"/>
-      <c r="C200" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="6"/>
-      <c r="C201" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="6"/>
-      <c r="C202" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="6"/>
-      <c r="C203" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="6"/>
-      <c r="C204" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="6"/>
-      <c r="C205" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="6"/>
-      <c r="C206" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="6"/>
-      <c r="C207" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="6"/>
-      <c r="C208" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="6"/>
-      <c r="C209" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="6"/>
-      <c r="C210" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="6"/>
-      <c r="C211" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="6"/>
-      <c r="C212" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="6"/>
-      <c r="C213" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="6"/>
-      <c r="C214" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="6"/>
-      <c r="C215" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="6"/>
-      <c r="C216" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="6"/>
-      <c r="C217" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="6"/>
-      <c r="C218" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="6"/>
-      <c r="C219" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="6"/>
-      <c r="C220" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="6"/>
-      <c r="C221" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="6"/>
-      <c r="C222" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="6"/>
-      <c r="C223" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="6"/>
-      <c r="C224" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="6"/>
-      <c r="C225" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="6"/>
-      <c r="C226" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="6"/>
-      <c r="C227" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="6"/>
-      <c r="C228" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="6"/>
-      <c r="C229" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="6"/>
-      <c r="C230" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="231" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="6"/>
-      <c r="C231" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="232" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="6"/>
-      <c r="C232" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="233" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="6"/>
-      <c r="C233" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="6"/>
-      <c r="C234" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="6"/>
-      <c r="C235" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="6"/>
-      <c r="C236" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="6"/>
-      <c r="C237" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="238" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="6"/>
-      <c r="C238" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="239" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="6"/>
-      <c r="C239" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="6"/>
-      <c r="C240" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="6"/>
-      <c r="C241" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="6"/>
-      <c r="C242" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="6"/>
-      <c r="C243" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="6"/>
-      <c r="C244" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="6"/>
-      <c r="C245" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="6"/>
-      <c r="C246" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="6"/>
-      <c r="C247" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="6"/>
-      <c r="C248" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="6"/>
-      <c r="C249" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="6"/>
-      <c r="C250" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="6"/>
-      <c r="C251" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="6"/>
-      <c r="C252" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="6"/>
-      <c r="C253" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="6"/>
-      <c r="C254" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="255" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="6"/>
-      <c r="C255" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="6"/>
-      <c r="C256" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="6"/>
-      <c r="C257" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="6"/>
-      <c r="C258" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="6"/>
-      <c r="C259" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="6"/>
-      <c r="C260" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="261" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="6"/>
-      <c r="C261" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="6"/>
-      <c r="C262" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="6"/>
-      <c r="C263" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="264" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="6"/>
-      <c r="C264" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="265" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="6"/>
-      <c r="C265" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="6"/>
-      <c r="C266" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="6"/>
-      <c r="C267" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="268" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="6"/>
-      <c r="C268" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="269" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="6"/>
-      <c r="C269" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="270" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="6"/>
-      <c r="C270" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="271" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="6"/>
-      <c r="C271" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="272" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="6"/>
-      <c r="C272" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="273" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="6"/>
-      <c r="C273" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="274" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="6"/>
-      <c r="C274" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="275" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="6"/>
-      <c r="C275" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="276" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="6"/>
-      <c r="C276" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="277" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="6"/>
-      <c r="C277" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="278" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="6"/>
-      <c r="C278" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="279" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="6"/>
-      <c r="C279" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="280" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="6"/>
-      <c r="C280" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="281" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="6"/>
-      <c r="C281" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="282" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="6"/>
-      <c r="C282" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="283" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="6"/>
-      <c r="C283" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="284" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="6"/>
-      <c r="C284" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="285" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="6"/>
-      <c r="C285" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="286" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="6"/>
-      <c r="C286" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="287" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="6"/>
-      <c r="C287" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="288" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="6"/>
-      <c r="C288" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="289" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="6"/>
-      <c r="C289" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="290" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="6"/>
-      <c r="C290" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="291" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="6"/>
-      <c r="C291" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="292" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="6"/>
-      <c r="C292" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="293" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="6"/>
-      <c r="C293" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="294" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="6"/>
-      <c r="C294" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="295" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="6"/>
-      <c r="C295" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="296" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="6"/>
-      <c r="C296" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="297" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="6"/>
-      <c r="C297" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="298" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="6"/>
-      <c r="C298" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="299" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="6"/>
-      <c r="C299" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="300" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="6"/>
-      <c r="C300" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="301" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="6"/>
-      <c r="C301" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="302" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="6"/>
-      <c r="C302" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
+      <c r="E196" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="2:6" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/data/data-sources.xlsx
+++ b/data/data-sources.xlsx
@@ -11,12 +11,11 @@
     <sheet name="methods, tools and practices" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="777">
   <si>
     <t>http://www.gbif.org/</t>
   </si>
@@ -2326,6 +2325,36 @@
   </si>
   <si>
     <t>http://trasi.foundationcenter.org/record.php?SN=131</t>
+  </si>
+  <si>
+    <t>Offering useful best practices and examples, this guide is the result of a year-long cross-foundation effort to develop common principles, approaches, and taxonomies to help Gates staff decide how best to allocate time and resources for data collection and analysis. Three principles guide the Gates Foundation's approach to actionable measurement: 1) Measurement should inform specific decisions and/or actions; 2) We do not measure everything, but we do strive to measure what matters most; 3) The data we gather help us learn and adapt our initiatives and strategies. The guide includes a results matrix, results hierarchy, definitions of related terms, and measurement guidelines intended to shape internal decisions about the depth, breadth, and rigor of measurement across grants and within strategies. It also highlights the best practices the Gates Foundation aspires to follow to be good stewards of our resources and not increase the reporting burden of grantees or distract them from their work.</t>
+  </si>
+  <si>
+    <t>This practical guide offers best practices that encourage soliciting input from stakeholders early in the evaluation design process to address specific stakeholder interests for improving program effectiveness, influencing policy decisions, and instituting behavioral and organizational change. The guide describes a five-step process for engaging stakeholders in developing evaluation questions, and includes four worksheets to facilitate the planning and implementation of a stakeholder engagement process.</t>
+  </si>
+  <si>
+    <t>This tool assesses the organizational capacity and specifically measures the advocacy capacity of a prospective or current grantee. The tool includes 18 indicators divided into four categories: advocacy goals, plans and strategies; conducting advocacy; advocacy avenues; and organizational operations to sustain advocacy. The tool describes capacities to which an organization should aspire if it wants to institutionalize its advocacy work. Sample measures include "the organization has a well written agenda, adopted by its board, that identifies the organization's priorities (such as issue priorities) for legislative and other types of advocacy."</t>
+  </si>
+  <si>
+    <t>The APR tool is a survey that allows foundations to understand the candid perspectives of declined applicants on a number of important dimensions. Individual reports include comparative data based on applicant perceptions of more than 25 foundations.</t>
+  </si>
+  <si>
+    <t>Appreciative Inquiry is a methodology used by groups to cooperatively explore what is working well in an organization, so they may plan and implement further positive action. This process encourages change in other areas of the organization that may not be functioning as well. AI involves a pre-scripted approach to interviewing stakeholders, leading discussions, and creating shared goals, to focus an organization’s productive energy towards mutually positive outcomes. Planned exercises in visualizing “what could be”, as well as hands-on activities, and mind mapping techniques, are directed towards defining objectives. The goals are then implemented by creating concrete steps toward putting agreed upon changes into practice. The AI method inspires mutual imagination, innovation and creative thinking, to side-step habitual obstacles and ineffective ways of thinking about challenging issues, promoting positive action.</t>
+  </si>
+  <si>
+    <t>The Apricot Outcomes Achievement Software is a tool for human services, arts, environmental, and advocacy nonprofit programs looking to collect, maintain, and report client/consumer, service and performance data - with minimum expense and maximum impact measurement. Nonprofit users can attract new funding with donor and volunteer tracking and outcomes management tools. The Outcomes Palette also includes visually engaging and easy-to-use bar and pie charts for outcomes reporting to stakeholders.</t>
+  </si>
+  <si>
+    <t>This tool aims to understand the impact of entrepreneurs receiving funds to do social sector work. It uses an annual self-response survey designed to track the progress of cohorts of Ashoka Fellows over time, distributed among groups of social entrepreneurs at the five- and ten-year anniversary of their Ashoka fellowship. The survey employs a group of proxy indicators which track data that can be aggregated across divergent fields of work, such as frequency with which the fellows' work has been replicated by other organizations and level of influence the fellow has had on public policy. Ashoka staff also carries out case studies with a subset of fellows to obtain more in-depth information.</t>
+  </si>
+  <si>
+    <t>This best practice provides information and a set of assessment activities that can help an organization better understand its policies and managerial, financial, and administrative systems. Should you decide to conduct an organizational self-assessment, this chapter provides guidance on how to examine your organization’s assets, such as funding, reputation, and skills, as well as the activities and the services you provide. Taken together this information will help to create a capacity-building action plan, which will enable your organization to more effectively carry out its programs and serve the communities in which you work.</t>
+  </si>
+  <si>
+    <t>This is a tool that measures improved policies. It takes the form of a phone survey and can be used over time to see if policies have changed for individual organizations or at a population level. Indicators of improved policies include number of organizations that have adopted policies around a particular issue and/or the number of policies that conform to elements of effective policy. Survey items address 1) whether an organization has officially adopted a policy 2) the elements of the policy 3) how the policy is enforced 4) perceived effectiveness of the policy 5) satisfaction with the policy.</t>
+  </si>
+  <si>
+    <t>The VPP Assessment and Improvement Indicators is a tool that conveys the quality of performance an organization has in 13 specific organizational categories and how much it has improved and changed in each area. Ratings are based on an initial assessment of capacity using the Organizational Capacity and Assessment Tool and other, internal tools used during the investment selection process. Progress is assessed according to annual performance of mutually established goals, a re-assessment of capacity, and the best judgment of partners. The Indicators are reviewed, discussed, and thoroughly vetted with the leadership of the nonprofit organization.</t>
   </si>
 </sst>
 </file>
@@ -2721,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U108"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:XFD307"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5595,15 +5624,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
@@ -5625,6 +5654,9 @@
       <c r="C4" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>767</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>259</v>
       </c>
@@ -5639,6 +5671,9 @@
       <c r="C5" s="2" t="s">
         <v>261</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>768</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>263</v>
       </c>
@@ -5653,6 +5688,9 @@
       <c r="C6" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>769</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>265</v>
       </c>
@@ -5667,6 +5705,9 @@
       <c r="C7" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>770</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>270</v>
       </c>
@@ -5681,6 +5722,9 @@
       <c r="C8" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>771</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>273</v>
       </c>
@@ -5695,6 +5739,9 @@
       <c r="C9" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>772</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>276</v>
       </c>
@@ -5709,6 +5756,9 @@
       <c r="C10" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>773</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>279</v>
       </c>
@@ -5723,6 +5773,9 @@
       <c r="C11" s="2" t="s">
         <v>281</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>774</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>282</v>
       </c>
@@ -5737,6 +5790,9 @@
       <c r="C12" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>775</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>273</v>
       </c>
@@ -5750,6 +5806,9 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>285</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>776</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>286</v>

--- a/data/data-sources.xlsx
+++ b/data/data-sources.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="849">
   <si>
     <t>http://www.gbif.org/</t>
   </si>
@@ -2355,6 +2355,222 @@
   </si>
   <si>
     <t>The VPP Assessment and Improvement Indicators is a tool that conveys the quality of performance an organization has in 13 specific organizational categories and how much it has improved and changed in each area. Ratings are based on an initial assessment of capacity using the Organizational Capacity and Assessment Tool and other, internal tools used during the investment selection process. Progress is assessed according to annual performance of mutually established goals, a re-assessment of capacity, and the best judgment of partners. The Indicators are reviewed, discussed, and thoroughly vetted with the leadership of the nonprofit organization.</t>
+  </si>
+  <si>
+    <t>This tool quantifies a potential investment's social output and compares it to the universe of existing charitable options for that explicit social issue. The BACO calculation is driven by three factors: financial leverage, enterprise efficiencies, and technology leverage.</t>
+  </si>
+  <si>
+    <t>The Balanced Scorecard provides a performance management methodology. It measures operational performance in terms of four outcome perspectives: financial, customer, business process, and learning growth. Metrics used include CAGR of revenue, compound annual growth rate of "lives touched," and other customized measures of program quality as well as metrics related to building critical organizational capacity and competencies.</t>
+  </si>
+  <si>
+    <t>Base of Pyramid (BoP) Impact Assessment Framework is a method that helps organizations better understand and improve their on-the-ground poverty alleviation impacts. Utilizing this framework provides venture leaders with a structured process to enhance positive impacts and mitigate negative impacts. The BoP Framework provides managers with a robust and systematic approach to conducting: 1) a strategic analysis to gain a deep understanding of their holistic set of impacts, and 2) a performance analysis to identify, track, and improve key indicators over time.</t>
+  </si>
+  <si>
+    <t>This tool is an accreditation designating that organizations meet BBB's code of business practices: build trust, advertise honestly, tell the truth, be transparent, honor promises, be responsive, safeguard privacy, embody integrity.</t>
+  </si>
+  <si>
+    <t>This is a tool that gathers feedback from program beneficiaries. CEP's current work on beneficiary perceptions is focused on students of foundation-supported high schools through a student survey project called YouthTruth. Developed in partnership with The Bill &amp; Melinda Gates Foundation, YouthTruth systematically collects meaningful feedback and reports it back in ways that can influence decision making by funders, as well as by schools, school districts, and school networks.</t>
+  </si>
+  <si>
+    <t>This tool expresses costs and social impacts of an investment in monetary terms. Quantification is achieved according to one or more of three measures: NPV (the aggregate value of all costs, revenues and social impacts discounted), benefit-cost ratio (the discounted value of revenues and positive impacts divided by discounted value of costs and negative impacts) and internal rate of return (the net value of revenues plus impacts expressed as an annual percentage return on the total costs of the investment).</t>
+  </si>
+  <si>
+    <t>This tool calculates a benefit/cost ratio for a Robin Hood program, whose goal is to eradicate poverty in New York City. It does so by applying a common measure of success for programs of all types: how much a grant to a program boosts the future earnings (or, more generally, living standards) of poor families above that which they would have earned in the absence of Robin Hood’s help. It then divides the estimated earnings boost by the size of Robin Hood’s grant. The ratio for each grant measures the value it delivers to poor people per dollar of cost to Robin Hood.</t>
+  </si>
+  <si>
+    <t>This is a tool that measures improved policies using a form that records the changes in amount and location of alcohol advertising.</t>
+  </si>
+  <si>
+    <t>This workbook offers a methodology to create a relatively straightforward set of measures that an organization can use to work through critical areas of organizational development. It is not intended to represent all of the operating actions or delegated tasks within an organization. As an organization fills in the worksheets, it should focus on reaching greater clarity around a small set of core directions and measures.</t>
+  </si>
+  <si>
+    <t>Based on True Impact's Volunteerism ROI Tracker, this web-based tool tailors its analysis to board service programs to allow non-profit organizations and socially conscious businesses to analyze their community outreach by examining social and business-related ROI. It allows users to analyze the value of service from leaders and decision makers and offers suggestions for improving their outputs and outcomes, as well as benchmarks for comparison.</t>
+  </si>
+  <si>
+    <t>This is a tool that measures strengthened base of media support. It tracks the amount of campaign-generated media visibility that has been developed - noting dimensions such as type of media (TV, radio, print, other) and type of placement (PSA, news story, op-ed, programming).</t>
+  </si>
+  <si>
+    <t>This is a tool that measures strengthened base of public support. It uses a self-assessment checklist to assess progress in developing early learning systems. The checklist lists important champions - corporate leaders and economic development heads, local businesses and chambers of commerce, law enforcement and corrections, faith communities etc - and rates where they are in terms of mobilization and advocacy activities.</t>
+  </si>
+  <si>
+    <t>This methodology offers a comprehensive, flexible, customizable framework for performance management that can complement planning or strategic tools, such as the Theory of Change and logic models. This approach can help streamline existing measurement efforts or provide an efficient approach to building a performance measurement system from the ground up. Root Cause's how-to guide, "Building a Performance Measurement System", describes a five-step process for building or refining a performance measurement system that will serve as an essential tool for assessing an organization’s progress in carrying out its mission and identifying opportunities for improvement.</t>
+  </si>
+  <si>
+    <t>This free diagnostic tool is designed to help social sector leaders assess the strengths and weaknesses of their organization’s leadership development and succession planning for senior leader positions. The survey includes 31 statements that relate to 5 core processes, including: 1) engagement of current leaders; 2) understanding future needs; 3) developing leaders effectively; 4) hiring leaders externally; and 5) measuring and improving practices. Organizations rate their current performance and receive a diagnostic results report with their own responses as well as the average responses of other survey takers, in order to help identify their organization’s areas for improvement and target their actions accordingly. An accompanying guide, "What’s Your “Plan A” for Growing Future Leaders?" features best practices from the field to help organizations think differently and address leadership development gaps.</t>
+  </si>
+  <si>
+    <t>This is a tool that measures strengthened base of public support. This form tracks and measures the number of "champions" (people who take actions to advance the public will) engaged and the actions these champions undertake as a part of the Born Learning campaign.</t>
+  </si>
+  <si>
+    <t>This tool is a survey that helps organizations and their constituents assess three organizational capabilities: accountability, strategy, and operational integrity.</t>
+  </si>
+  <si>
+    <t>This is a best practice that suggests use of a focus group to measure a shift in social norms. This best practice provides example questions regarding attitudes about welfare such as: "What do you think the government's role should be in relation to poverty and poor people?"; "What should the federal government's priorities be for the welfare system?"; "Do you think the current welfare system encourages or discourages poor people to find work? Why?"</t>
+  </si>
+  <si>
+    <t>The Charity Analysis Framework is a tool that evaluates grantees in the human welfare sector. Its analysis focuses on several criteria within six key areas: activities, results, leadership, staff and other resources, finances and ambition, in order to answer the following questions: 1) Is the charity tackling the most important issues?; 2) Is it tackling them in ways that make a significant difference?; 3) Has it got ambition, leadership and resources to continue to be effective? The results are also displayed in a Grading Grid, ranging from Excellent to Below Expectations.</t>
+  </si>
+  <si>
+    <t>This is a tool that rates charities. It evaluates two broad areas of financial health, organizational efficiency and organizational capacity. It uses a set of financial ratios or performance categories to rate each of these two areas, and issues an overall rating that combines the charity’s performance in both areas. The ratings show givers how efficiently Charity Navigator believes a charity will use their support today, and to what extent the charities are growing their programs and services over time. In the future, Charity Navigator intends to provide a measurement of each charity’s potential to deliver social value.</t>
+  </si>
+  <si>
+    <t>This best practice effort proposes a common language and framework for organizations of various sizes, and of various missions and activities, to consider and communicate their impact through Charting Impact Reports. At the heart of Charting Impact are five simple yet powerful questions that encourage strategic thinking about how to achieve long-term goals. Responding to them creates a unique report that shares concise, detailed information about plans and progress with key stakeholders, including the public. Charting Impact does not specify what to measure or how to assess performance, and participating is intended to complement, not replace, the other goal-setting and planning efforts of the organization.</t>
+  </si>
+  <si>
+    <t>This best practice is a checklist of key items to look for in reading the results of a randomized controlled trial of a social program, project, or strategy (“intervention”) to assess whether it produced valid evidence on the intervention’s effectiveness.</t>
+  </si>
+  <si>
+    <t>Civic Engagement Measurement System (CEMS) is a tool in the form of three surveys designed to help nonprofit human service organizations measure the impact of their civic engagement efforts. Participating organizations gain access to automated administration, scoring, and reporting services related to implementing the measurement system. The surveys (starting on p. 22 of the report) contain a measure completed by the organization itself, a measure completed by key informants in the community that are familiar with the work of the organization, and a measure completed by constituents that are served as clients or service recipients by the organization. The CEMS project was released in partnership with United Neighborhood Centers of America, Behavioral Pathway Systems, and Keystone Accountability, and with support from the W.K. Kellogg Foundation.</t>
+  </si>
+  <si>
+    <t>This is a best practice that tells foundations to seek feedback across a group of projects or programs to identify common threads and themes that, having cross-confirmation, take on greater significance. Cluster evaluators provide feedback on commonalities in program design as well as innovative methodologies used by projects during the life of the initiative.</t>
+  </si>
+  <si>
+    <t>The CHANGE tool helps community teams (such as coalitions) develop their community action plan. This tool walks community team members through the assessment process and helps define and prioritize possible areas of improvement. Having this information as a guide, community team members can create sustainable, community-based improvements that address the root causes of chronic diseases and related risk factors. It can be used annually to assess current policy, systems, and environmental change strategies and offer new priorities for future efforts. CHANGE is a data-collection tool that allows community team members to track progress across a five-point scale, so incremental changes can be noted. As problem areas are identified, health-related policies are implemented, and systems and environmental change strategies are put in place, team members can document the community-level changes.</t>
+  </si>
+  <si>
+    <t>This tool is a survey that measures a shift in social norms. This specific survey elicits data community members' view of how others in the community prioritize issues compared to their personal prioritization. Example questions are: How seriously do you think your community treats each of the following problems? How seriously do you treat each of the following problems? Rated from 1-4 (not very seriously to seriously). Problems listed include living wage, early education, access to health care, child abuse, K-12 education, environmental issues, transportation, privacy issues, drug and alcohol abuse, teen pregnancy.</t>
+  </si>
+  <si>
+    <t>This best practice is an approach to evaluation that emphasizes a working group of diverse stakeholders who bring different perspectives to the experience. The process involves 1) assessing organizational readiness to participate in this approach; 2) assembling an evaluation team; 3) assigning roles; 4) assigning consultant responsibilities; and 5) assigning client responsibilities.</t>
+  </si>
+  <si>
+    <t>The Community Tool Box is a set of best practices that provides more than 7,000 pages of practical information to support community health and development work. The focus is on specific practical skills, such as conducting a meeting or participatory evaluation. The Evaluating the Initiative section provides a framework and guidance for developing an evaluation of a community health program or initiative. The Examples section provides useful case studies showing how various projects and programs have used the resources in the tool box to conduct their own evaluations.</t>
+  </si>
+  <si>
+    <t>This is a tool for obtaining feedback on a program's perception by various stakeholders (it can be applied at different points along the development value chain, between funders and grantees, and between organizations and their primary constituents). It uses a questionnaire to collect perceptions from organizations’ constituents on key aspects of the organizations’ performance. The questionnaire is administered simultaneously to a comparable constituency group for a cohort of similar organizations.</t>
+  </si>
+  <si>
+    <t>This tool determines the level of sustainability of an organization's operations. Primarily used by cities, communities, companies, or organizations, this versatile tool has several versions, including: (1) for large companies, to assess them from the outside; (2) for SMEs and investment targets assessed in detail, from the inside; (3) cities and communities, using a multi-stakeholder development process; and (4) organizations, foundations, schools and other entities. The Compass clusters indicators into four components of sustainability: N=Nature, E=Economy, S=Society, and W=Well-being; for institutional evaluation, a fifth category is added: Synergy. Within each of the categories, between 5 and 20 parameters covering different facets are measured. For company assessments, responses to each section are weighted according to main areas of activity and impact to arrive at a score of 100 possible points. Metrics assess energy usage, material flows, community interactions - and are both qualitative and quantitative.</t>
+  </si>
+  <si>
+    <t>This document provides overall guidance about methods of evaluation and assessment for social justice and movement building work. It includes case studies and worksheets to help outline an evaluation, starting on p. 11.</t>
+  </si>
+  <si>
+    <t>CCAT is an online survey tool that allows an organization to analyze its organizational strengths. It looks at four core capacities: 1) adaptive capacity: the ability of a nonprofit to monitor, assess, and respond to and create internal and external changes; 2) leadership capacity: the ability of all organizational leaders to create and sustain the vision, inspire, model, prioritize, make decisions, provide direction and innovate; 3) management capacity: the ability of a nonprofit organization to ensure the effective and efficient use of organizational resources; and 4) technical capacity: the ability of a nonprofit to implement key organizational and programmatic functions.</t>
+  </si>
+  <si>
+    <t>This tool monetizes the benefits and costs associated with an intervention. It takes the perspective of society as a whole and considers the costs and dollar-valued outcomes aggregated across all stakeholders (government sector or individuals as taxpayers, program participants or private individuals, the rest of society). The output from cost-benefit analysis can be measures of net benefits (benefits – costs), the ratio of benefits to cost (benefit-cost ratios), or the internal rate of return (the rate of growth a project is expected to generate).</t>
+  </si>
+  <si>
+    <t>This tool calculates a ratio of cost to a non-monetary benefit or outcome. The focus may be on one domain of impact (e.g. crime, student achievement) or multiple areas of impact. However, measures of cost-effectiveness can only account for one area of program impact at a time. Since program impacts are measured in natural units (e.g. life year saved, child graduating from high school), unless those units are common across all areas of impact, it is not possible to aggregate across them.</t>
+  </si>
+  <si>
+    <t>This tool aims to measure how much change costs as measured by the investments made by philanthropists or other sources to realize the impact (measured by specific objective criteria for success).</t>
+  </si>
+  <si>
+    <t>Cradle to Cradle offers a tool that certifies companies that meet a standard for using environmentally safe and healthy materials; design for material reutilization, such as recycling or composting; the use of renewable energy and energy efficiency; efficient use of water, and maximum water quality associated with production; and instituting strategies for social responsibility. If a candidate product achieves the necessary criteria, it is certified as a Basic, Silver, Gold or Platinum product and can be branded as Cradle to Cradle CertifiedCM.</t>
+  </si>
+  <si>
+    <t>This best practice provides guidelines on values (e.g., provides at least 50 percent of its grant dollars to benefit lower-income communities, provides at least 25 percent of its grant dollars for advocacy), effectiveness (e.g., provides at least 50 percent of its grant dollars for general operating support), ethics (maintains an engaged board of at least five people who include among them a diversity of perspectives including of the community it serves and who serve without compensation), and commitment (pays out at least 6 percent of its assets annual in grants, invests at least 25 percent of its assets in ways that support its mission) criteria for evaluating philanthropy. It does not include scoring system, relative weighting system, or ranking.</t>
+  </si>
+  <si>
+    <t>The Cultural Data Project is an online management tool designed to strengthen arts and cultural organizations. It gathers data on the sector, allowing participating organizations, researchers, advocates, and grantmakers to track trends and benchmark progress.</t>
+  </si>
+  <si>
+    <t>The Dalberg Approach is a customized performance evaluation method that starts with development of a project's theory of change and considers each segment of the impact value chain. The information is then benchmarked often against a traditional business to tease out the value of using a double bottom line approach.</t>
+  </si>
+  <si>
+    <t>This is a best practice to obtain clarity about what needs to happen to achieve and sustain the changes, or outcomes, that want to be seen (mapping the outcome pathways to success) and to identify who (people or institutions) can influence these outcomes positively or negatively (mapping the activity ecosystem). It sets the framework for identifying impact, intermediary outcome and process indicators.</t>
+  </si>
+  <si>
+    <t>DOTS is a tool that measures the impact of investments on stakeholders and rates financial, economic, environmental, social performance, and private sector development impact. It identifies standard performance goals indicators and measures the rate of achievement in these assigned indicators against benchmarks and timelines.</t>
+  </si>
+  <si>
+    <t>DevResults is a web-based project management tool specially designed for the international development community. It’s a software application that offers tools for monitoring &amp; evaluation, mapping, budgeting, project management, and collaboration.</t>
+  </si>
+  <si>
+    <t>The Donor Committee for Enterprise Development (DCED) Standard offers a best practice by outlining the key elements for practically and credibly estimating the results of Private Sector Development programmes, in a process which can be managed by programmes internally. It involves a few common impact indicators to ensure that donors will be able to add up their results across country programmes. The Standard is being piloted on a multi-agency basis; the DCED invites new programmes to join in adopting the approach.</t>
+  </si>
+  <si>
+    <t>The Donor Perception Report (DPR) is a tool that explores, on a comparative basis, donors’ perceptions of community foundations to which they contribute. The DPR is based on a customizable survey, covering topics from donor preferences and motivations to the services and resources that are most valuable to community foundation donors. Through the DPR, community foundations are able to identify actionable strategies for most effectively engaging their donors.</t>
+  </si>
+  <si>
+    <t>The Due Diligence Framework for Scaling Initiatives (beta) provides funders with guidelines and best practices on basic topics to cover when doing due diligence on scaling initiative. A supplement for funders assessing the scalability of a program or social investment, the framework is geared toward program replication and practice dissemination models of scaling. Currently in beta, revisions are expected as the framework is reviewed, used, and modified. Additional due diligence frameworks for policy initiatives, systems change efforts, and other models of scaling are also in the works.</t>
+  </si>
+  <si>
+    <t>This is a tool to assess the ongoing impact of an organization receiving funds to do social sector work. It uses a mid-year and year end survey to assess program development, organizational development, community outreach, program sustainability, personal and professional development, and outcome tracking and sustainability.</t>
+  </si>
+  <si>
+    <t>The Ecological Footprint is a resource accounting tool that measures how much of the biological capacity of the planet is demanded by a given human activity or population. It takes into account six primary areas: cropland, grazing land, fishing grounds, forest, built-up land, and land for carbon absorption. The Ecological Footprint calculator, an application of the Footprint tool, asks a user a series of questions to determine how many global hectares are required for the entity's support - these questions include eating habits, household size, transportation usage, and others.</t>
+  </si>
+  <si>
+    <t>ETO is a tool that measures the impact of funding. It is a performance management software tool that helps grantees track and report efforts to funders.</t>
+  </si>
+  <si>
+    <t>The EPRS tool provides an annual summary to investors on the actual net environmental benefits of clean technology investments. It first develops an environmental analytical framework for the portfolio company and then finalizes indicators and tracks data when the company begins generating sales.</t>
+  </si>
+  <si>
+    <t>This is a best practice that offers guidance in developing norms and standards for evaluation in an effort to improve humanitarian aid programs and policy. The approach offers a core set of principles, along with five evaluation criteria: relevance, effectiveness, efficiency, impact, sustainability, and a framework for peer reviews and assessment.</t>
+  </si>
+  <si>
+    <t>This best practices handbook provides project managers and policy analysts with the tools needed for evaluating project impact. The handbook presents an overview of concepts and methods, key steps of implementation, analytical techniques through a case study, and a discussion of lessons learned from a set of reviewed evaluations.</t>
+  </si>
+  <si>
+    <t>This is a method that transfers key data from the Logic Model Builder and moves from goal-setting to identification of evaluation questions, indicators, and data collection strategies for evaluating program outcomes and implementation.</t>
+  </si>
+  <si>
+    <t>A thorough document created for a more comprehensive internal understanding of the role of evaluation at the Hewlett Foundation, "Evaluation Principles and Practices" serves as a guide for foundations and grantees looking to better understand the best practices and principles of evaluation. The document provides a broad overview of different types of evaluations with cursory instruction on implementation in the context of organization-wide adoption. It is organized into four substantive sections: (1) Principles, (2) Organizational Roles, (3) Practice Guide, and (4) Special Evaluation Cases. It also includes a helpful glossary of terms.</t>
+  </si>
+  <si>
+    <t>This method offers a self-assessment framework for measuring the strengths and areas for improvement of an organization across all of its activities. The term ‘excellence’ is used because the Excellence Model focuses on what an organization does, or could do, to provide an excellent service or product to its customers, service users or stakeholders.</t>
+  </si>
+  <si>
+    <t>This is a tool that calculates the expected return of an investment by multiplying (benefit in a perfect world x likelihood of success x philanthropy's contribution)/cost.</t>
+  </si>
+  <si>
+    <t>This is a method to assess foundation strategy and potential for impact. It consists of a wise person review to answer five key questions: 1) Are we addressing critical opportunities and needs in the field? 2) Have we devised appropriate strategies for using these opportunities and meeting these needs? 3) Have we effectively implemented our strategies? 4) What should we consider doing differently in the future? 5) What has been the role and/or contribution of the foundation as a funder in the field? How are the foundation and its grants perceived? The method can be and has included field-wide surveys, commissioned papers by field experts, and expert panel meetings.</t>
+  </si>
+  <si>
+    <t>Fair Trade Certification is a tool that allows agricultural products to bear the label "fair trade certified." The Fair Trade Certified label is a guarantee that Fair Trade prices and "social premiums"--funds dedicated to community development initiatives such as education, health systems, and women's empowerment projects, as well as productive investments in product quality or related areas--were paid to cooperatives or other farmers' and workers' organizations by U.S.-based companies offering FTC products. These payments are verified by TransFair USA's supply-chain auditing services. TransFair USA's certification process combines desk audits and periodic on-site inspections of U.S. production facilities. In addition, certified products are guaranteed to have been sourced from cooperatives or other organizations in the developing world that meet international standards for environmental performance and progress, democratic and transparent governance, and working conditions. These criteria are verified by regular on-site inspections carried out by TransFair USA's partners in the global Fair Trade certification and labeling network, which spans 21 countries in the global North together with 60 developing nations.</t>
+  </si>
+  <si>
+    <t>The Performance Assessment Framework is a best practice that enables foundations to monitor progress towards advancing their mission and organizational goals. The James Irvine Foundation’s documentation of this framework can be used to create an individual measurement of a foundation’s impact by establishing clear goals, examining relevant data and assessing progress against desired outcomes in two broad sections: 1) Program Impact, with specific measures and indicators for context, outcomes, and results, learning and refinement; and 2) Institutional Effectiveness, with specific measures and indicators for leadership, constituent feedback, and finance and organization.</t>
+  </si>
+  <si>
+    <t>The Scorecard is a method for assessing a foundation's program impact, program development, customer service, and human/financial capital. It uses performance indicators (determined by the impact framework) and commissions surveys to find out what grantees think of the Foundation, what experts think the Foundation’s impact is, and what the staff considers to be the Foundation’s strong and weak points.</t>
+  </si>
+  <si>
+    <t>This is a best practice for monitoring and evaluating systems focused on adaptive management (obtaining the information needed to manage projects) and impact assessments.</t>
+  </si>
+  <si>
+    <t>This best practice offers a framework that outlines steps for program evaluation (engage stakeholders, describe the program, focus the evaluation design, gather credible evidence, justify conclusions, ensure use and share lessons learned) as well as standards (utility, feasibility, propriety, accuracy). While developed for public health programs, the steps and standards are generalizable to evaluation of any effort.</t>
+  </si>
+  <si>
+    <t>The Gender Equality Principles Initiative (GEP Initiative) offers tools to help companies around the world achieve greater gender equality and build more productive workplaces through practical implementation of the Gender Equality Principles (GEP). The GEP Initiative provides companies with practical standards, tools, and resources that can be used to improve gender equality from the factory floor to the boardroom. The Gender Equality Principles address 7 fundamental issues: 1) Employment and Compensation; 2) Work-Life Balance and Career Development; 3) Health, Safety and Freedom from Violence; 4) Management and Governance; 5) Business, Supply Chain, and Marketing Practices; 6) Civic and Community Engagement; and 7) Transparency and Accountability. The GEP Web site offers companies a self-assessment tool that will provide a baseline of a company’s performance on issues of gender equality, identify areas of strength and opportunities for improvement, and deliver extensive tools and resources to assist in the design of an action plan.</t>
+  </si>
+  <si>
+    <t>Getting To Outcomes (GTO) provides methods to build capacity, enhance evaluation skills, and facilitate the achievement and documentation of outcomes. It is designed to empower local prevention practitioners to adequately develop and assess their own community-based substance abuse prevention programs. The manual includes 10 specific questions with six focused on planning and four on evaluation, continuous quality improvement, and sustainability. It is supplemented with face-to-face training and on-site technical assistance. RAND also has Web-based interactive tools and additional manuals for preventing underage drinking and teen pregnancy, assisting community positive youth development programs, and guiding program leaders through the process of submitting proposals and allocating funding and developing contracts.</t>
+  </si>
+  <si>
+    <t>GIRAFE is a tool that evaluates the performance and institutional risk of microfinance institutions (MFIs). It grades MFI on six areas: governance, information, risk management, activities and services, financing and liquidity, and efficiency and probability. The evaluation is based on the analysis of the MFI's financial performance via financial statements and portfolio quality reports. The evaluation also assesses the institution's management and information system, interviews board members, management team, staff (mainly credit officers) and clients.</t>
+  </si>
+  <si>
+    <t>This is a method that GiveWell employs to identify top charities working towards a particular goal through scanning public tax records, inviting a subset of charities to fill out a survey to provide more information, and rating those charities. It's focused on providing transparency to evaluation.</t>
+  </si>
+  <si>
+    <t>Powered by the B Impact Ratings System, this tool assesses the social and environmental impact of companies and investment portfolios. It provides ratings similar to Morningstar investment ratings or S&amp;P credit ratings. The Company Impact Rating is an aggregate numerical score and star-rating for individual companies built-up from their ratings in five stakeholder categories (environment, community, employees, consumers/products, and governance/ leadership) and fifteen sub-categories. The Portfolio Impact Rating is an aggregate numerical score and star-rating for an investment fund based on a rollup of the underlying Company Impact Ratings for the companies in its investment portfolio.</t>
+  </si>
+  <si>
+    <t>The GPR is a management tool that provides foundation CEOs, boards, and staff with comparative data on grantee perceptions of their foundation's performance on a variety of dimensions. The GPR is based on a comprehensive survey of grantees covering issues such as interactions during the grant, the application and reporting processes, and perceived foundation impact.</t>
+  </si>
+  <si>
+    <t>GreatNonprofits offers a tool to find, review, and discuss nonprofits. Much like Amazon book reviews or other consumer review sites (Epinions, Zagats, TripAdvisor, Yelp, etc.), the reviews and ratings are posted by people who have interacted with a nonprofit in some capacity and want to share their opinions about it.</t>
+  </si>
+  <si>
+    <t>The GRI Reporting Framework offers a method to assess the sustainability of an organization's activities. This method can be applied to any type of organization of any size. GRI also offers Sector Supplements to respond to the unique needs of certain sectors, including but not limited to: the automotive, construction, electric utilities, media, mining &amp; metals, and food processing sectors. Sustainability reports based on the GRI framework benchmark organizational performances with respect to laws, norms, codes, performance standards, and voluntary initiatives and compare organizational performance over time.</t>
+  </si>
+  <si>
+    <t>This tool provides reports detailing individual public charity financial performance. These reports reveal trends in income, assets, and expenses and provide the ability to analyze peer group comparisons according to geographic area and NTEE classification.</t>
+  </si>
+  <si>
+    <t>The HAP Standard is a tool that seeks to measure: 1) Accountability and quality commitments made by an aid agency; 2) Quality management system–the processes used by the aid agency to achieve the commitments made; 3) Quality of service–as defined by disaster survivors, affected communities, partners, aid practitioners and other specified stakeholders. In order to achieve certification, an agency will demonstrate that it meets the 6 benchmarks and 19 requirements in the HAP Standard. These cover the three areas mentioned above, with specific attention to continual improvement. Designed for use by practitioners, researchers and donors, the Guide to the HAP Standard provides practical advice for improving the quality and accountability of humanitarian action. For agencies seeking HAP certification, it is an indispensible resource. The Additional Tools (in the Find Out More box) links directly to the Annex section of the Guide, which includes sample surveys, checklists, indicators, quality assurance tests, SWOT, and guidance on: conducting interviews, observations, focus groups; engaging communities; setting up feedback mechanisms; and holding lessons learned meetings.</t>
+  </si>
+  <si>
+    <t>The HIP (Human Impact + Profit) Scorecard™ is a tool that demonstrates how increased human impact (human, social, and environmental results) drives higher revenue, lower costs, and tax benefits for organizations from all sectors - business, social, and government. It measures five categories: health, wealth, earth, equality, and trust. HIP also assesses five management practices that drive sustainable, profitable growth: vision, measures, decision-making, accountability, and financial alignment. Organizations are analyzed using a combination of company interviews, primary research and third-party databases. The resulting HIP rating integrates 3 dimensions: human impact, profit, and management practices - and can be used as a tool inside organizations, to benchmark performance, to evaluate competitive position, and to communicate the level of impact to stakeholders across all sectors.</t>
+  </si>
+  <si>
+    <t>This is a method that sets short medium and long range targets in specific program areas (such as health insurance coverage, childhood obesity, and public health) and uses performance indicators to measure progress toward those targets.</t>
   </si>
 </sst>
 </file>
@@ -5624,8 +5840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5824,6 +6040,9 @@
       <c r="C14" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>777</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>288</v>
       </c>
@@ -5838,6 +6057,9 @@
       <c r="C15" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>778</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>290</v>
       </c>
@@ -5852,6 +6074,9 @@
       <c r="C16" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>779</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>292</v>
       </c>
@@ -5866,6 +6091,9 @@
       <c r="C17" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>780</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>294</v>
       </c>
@@ -5883,6 +6111,9 @@
       <c r="C18" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>781</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>270</v>
       </c>
@@ -5897,6 +6128,9 @@
       <c r="C19" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>782</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>298</v>
       </c>
@@ -5911,6 +6145,9 @@
       <c r="C20" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>783</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>300</v>
       </c>
@@ -5925,6 +6162,9 @@
       <c r="C21" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>784</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>302</v>
       </c>
@@ -5939,6 +6179,9 @@
       <c r="C22" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>785</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>304</v>
       </c>
@@ -5953,6 +6196,9 @@
       <c r="C23" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>786</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>306</v>
       </c>
@@ -5967,6 +6213,9 @@
       <c r="C24" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>787</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>273</v>
       </c>
@@ -5981,6 +6230,9 @@
       <c r="C25" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>788</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>309</v>
       </c>
@@ -5995,6 +6247,9 @@
       <c r="C26" s="2" t="s">
         <v>318</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>789</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>487</v>
       </c>
@@ -6009,6 +6264,9 @@
       <c r="C27" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>790</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>488</v>
       </c>
@@ -6023,6 +6281,9 @@
       <c r="C28" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>791</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>273</v>
       </c>
@@ -6037,6 +6298,9 @@
       <c r="C29" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>792</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>489</v>
       </c>
@@ -6051,6 +6315,9 @@
       <c r="C30" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>793</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>273</v>
       </c>
@@ -6065,6 +6332,9 @@
       <c r="C31" s="2" t="s">
         <v>323</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>794</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>490</v>
       </c>
@@ -6079,6 +6349,9 @@
       <c r="C32" s="2" t="s">
         <v>324</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>795</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>491</v>
       </c>
@@ -6093,6 +6366,9 @@
       <c r="C33" s="2" t="s">
         <v>325</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>796</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>492</v>
       </c>
@@ -6107,6 +6383,9 @@
       <c r="C34" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>797</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>493</v>
       </c>
@@ -6121,6 +6400,9 @@
       <c r="C35" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>798</v>
+      </c>
       <c r="E35" s="2" t="s">
         <v>494</v>
       </c>
@@ -6135,6 +6417,9 @@
       <c r="C36" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>799</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>495</v>
       </c>
@@ -6149,6 +6434,9 @@
       <c r="C37" s="2" t="s">
         <v>329</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>800</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>496</v>
       </c>
@@ -6163,6 +6451,9 @@
       <c r="C38" s="2" t="s">
         <v>330</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>801</v>
+      </c>
       <c r="E38" s="2" t="s">
         <v>273</v>
       </c>
@@ -6177,6 +6468,9 @@
       <c r="C39" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>497</v>
       </c>
@@ -6191,6 +6485,9 @@
       <c r="C40" s="2" t="s">
         <v>332</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>803</v>
+      </c>
       <c r="E40" s="2" t="s">
         <v>498</v>
       </c>
@@ -6205,6 +6502,9 @@
       <c r="C41" s="2" t="s">
         <v>333</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>804</v>
+      </c>
       <c r="E41" s="2" t="s">
         <v>489</v>
       </c>
@@ -6219,6 +6519,9 @@
       <c r="C42" s="2" t="s">
         <v>334</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>805</v>
+      </c>
       <c r="E42" s="2" t="s">
         <v>499</v>
       </c>
@@ -6236,6 +6539,9 @@
       <c r="C43" s="2" t="s">
         <v>335</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>806</v>
+      </c>
       <c r="E43" s="2" t="s">
         <v>500</v>
       </c>
@@ -6250,6 +6556,9 @@
       <c r="C44" s="2" t="s">
         <v>336</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>807</v>
+      </c>
       <c r="E44" s="2" t="s">
         <v>497</v>
       </c>
@@ -6264,6 +6573,9 @@
       <c r="C45" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>808</v>
+      </c>
       <c r="E45" s="2" t="s">
         <v>259</v>
       </c>
@@ -6278,6 +6590,9 @@
       <c r="C46" s="2" t="s">
         <v>338</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>809</v>
+      </c>
       <c r="E46" s="2" t="s">
         <v>259</v>
       </c>
@@ -6292,6 +6607,9 @@
       <c r="C47" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>810</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>501</v>
       </c>
@@ -6306,6 +6624,9 @@
       <c r="C48" s="2" t="s">
         <v>340</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>811</v>
+      </c>
       <c r="E48" s="2" t="s">
         <v>502</v>
       </c>
@@ -6323,6 +6644,9 @@
       <c r="C49" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>812</v>
+      </c>
       <c r="E49" s="2" t="s">
         <v>503</v>
       </c>
@@ -6337,6 +6661,9 @@
       <c r="C50" s="2" t="s">
         <v>342</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>813</v>
+      </c>
       <c r="E50" s="2" t="s">
         <v>504</v>
       </c>
@@ -6351,6 +6678,9 @@
       <c r="C51" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>814</v>
+      </c>
       <c r="E51" s="2" t="s">
         <v>505</v>
       </c>
@@ -6365,6 +6695,9 @@
       <c r="C52" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>815</v>
+      </c>
       <c r="E52" s="2" t="s">
         <v>489</v>
       </c>
@@ -6379,6 +6712,9 @@
       <c r="C53" s="2" t="s">
         <v>345</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>816</v>
+      </c>
       <c r="E53" s="2" t="s">
         <v>506</v>
       </c>
@@ -6393,6 +6729,9 @@
       <c r="C54" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>817</v>
+      </c>
       <c r="E54" s="2" t="s">
         <v>507</v>
       </c>
@@ -6407,6 +6746,9 @@
       <c r="C55" s="2" t="s">
         <v>347</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>818</v>
+      </c>
       <c r="E55" s="2" t="s">
         <v>508</v>
       </c>
@@ -6421,6 +6763,9 @@
       <c r="C56" s="2" t="s">
         <v>348</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>819</v>
+      </c>
       <c r="E56" s="2" t="s">
         <v>270</v>
       </c>
@@ -6435,6 +6780,9 @@
       <c r="C57" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>820</v>
+      </c>
       <c r="E57" s="2" t="s">
         <v>509</v>
       </c>
@@ -6449,6 +6797,9 @@
       <c r="C58" s="2" t="s">
         <v>350</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>821</v>
+      </c>
       <c r="E58" s="2" t="s">
         <v>510</v>
       </c>
@@ -6463,6 +6814,9 @@
       <c r="C59" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>822</v>
+      </c>
       <c r="E59" s="2" t="s">
         <v>511</v>
       </c>
@@ -6480,6 +6834,9 @@
       <c r="C60" s="2" t="s">
         <v>352</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>823</v>
+      </c>
       <c r="E60" s="2" t="s">
         <v>512</v>
       </c>
@@ -6494,6 +6851,9 @@
       <c r="C61" s="2" t="s">
         <v>353</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>824</v>
+      </c>
       <c r="E61" s="2" t="s">
         <v>514</v>
       </c>
@@ -6508,6 +6868,9 @@
       <c r="C62" s="2" t="s">
         <v>354</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>825</v>
+      </c>
       <c r="E62" s="2" t="s">
         <v>515</v>
       </c>
@@ -6522,6 +6885,9 @@
       <c r="C63" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="E63" s="2" t="s">
         <v>516</v>
       </c>
@@ -6536,6 +6902,9 @@
       <c r="C64" s="2" t="s">
         <v>356</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>827</v>
+      </c>
       <c r="E64" s="2" t="s">
         <v>517</v>
       </c>
@@ -6550,6 +6919,9 @@
       <c r="C65" s="2" t="s">
         <v>357</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>828</v>
+      </c>
       <c r="E65" s="2" t="s">
         <v>518</v>
       </c>
@@ -6564,6 +6936,9 @@
       <c r="C66" s="2" t="s">
         <v>358</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>829</v>
+      </c>
       <c r="E66" s="2" t="s">
         <v>519</v>
       </c>
@@ -6578,6 +6953,9 @@
       <c r="C67" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>830</v>
+      </c>
       <c r="E67" s="2" t="s">
         <v>520</v>
       </c>
@@ -6592,6 +6970,9 @@
       <c r="C68" s="2" t="s">
         <v>360</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="E68" s="2" t="s">
         <v>521</v>
       </c>
@@ -6606,6 +6987,9 @@
       <c r="C69" s="2" t="s">
         <v>361</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>832</v>
+      </c>
       <c r="E69" s="2" t="s">
         <v>522</v>
       </c>
@@ -6623,6 +7007,9 @@
       <c r="C70" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>833</v>
+      </c>
       <c r="E70" s="2" t="s">
         <v>523</v>
       </c>
@@ -6637,6 +7024,9 @@
       <c r="C71" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>834</v>
+      </c>
       <c r="E71" s="2" t="s">
         <v>524</v>
       </c>
@@ -6651,6 +7041,9 @@
       <c r="C72" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>835</v>
+      </c>
       <c r="E72" s="2" t="s">
         <v>525</v>
       </c>
@@ -6665,6 +7058,9 @@
       <c r="C73" s="2" t="s">
         <v>365</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>836</v>
+      </c>
       <c r="E73" s="2" t="s">
         <v>526</v>
       </c>
@@ -6679,6 +7075,9 @@
       <c r="C74" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>837</v>
+      </c>
       <c r="E74" s="2" t="s">
         <v>527</v>
       </c>
@@ -6693,6 +7092,9 @@
       <c r="C75" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>838</v>
+      </c>
       <c r="E75" s="2" t="s">
         <v>528</v>
       </c>
@@ -6707,6 +7109,9 @@
       <c r="C76" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="E76" s="2" t="s">
         <v>529</v>
       </c>
@@ -6724,6 +7129,9 @@
       <c r="C77" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>840</v>
+      </c>
       <c r="E77" s="2" t="s">
         <v>530</v>
       </c>
@@ -6738,6 +7146,9 @@
       <c r="C78" s="2" t="s">
         <v>370</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>841</v>
+      </c>
       <c r="E78" s="2" t="s">
         <v>531</v>
       </c>
@@ -6755,6 +7166,9 @@
       <c r="C79" s="2" t="s">
         <v>371</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>842</v>
+      </c>
       <c r="E79" s="2" t="s">
         <v>270</v>
       </c>
@@ -6769,6 +7183,9 @@
       <c r="C80" s="2" t="s">
         <v>372</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>843</v>
+      </c>
       <c r="E80" s="2" t="s">
         <v>532</v>
       </c>
@@ -6783,6 +7200,9 @@
       <c r="C81" s="2" t="s">
         <v>373</v>
       </c>
+      <c r="D81" s="2" t="s">
+        <v>844</v>
+      </c>
       <c r="E81" s="2" t="s">
         <v>533</v>
       </c>
@@ -6797,6 +7217,9 @@
       <c r="C82" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>845</v>
+      </c>
       <c r="E82" s="2" t="s">
         <v>534</v>
       </c>
@@ -6811,6 +7234,9 @@
       <c r="C83" s="2" t="s">
         <v>375</v>
       </c>
+      <c r="D83" s="2" t="s">
+        <v>846</v>
+      </c>
       <c r="E83" s="2" t="s">
         <v>535</v>
       </c>
@@ -6828,6 +7254,9 @@
       <c r="C84" s="2" t="s">
         <v>376</v>
       </c>
+      <c r="D84" s="2" t="s">
+        <v>847</v>
+      </c>
       <c r="E84" s="2" t="s">
         <v>536</v>
       </c>
@@ -6844,6 +7273,9 @@
       </c>
       <c r="C85" s="2" t="s">
         <v>377</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>848</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>524</v>
